--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\MumbaiExtraction\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\2nd tasks\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E439654-CE44-415C-A581-EE5E2A5DBE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -26,13 +25,13 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
+    </x:ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product</t>
   </si>
@@ -60,26 +59,11 @@
   <si>
     <t>Page No</t>
   </si>
-  <si>
-    <t>F19010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01-09-22</t>
-  </si>
-  <si>
-    <t>19-09-2022</t>
-  </si>
-  <si>
-    <t>https://resindistributors.com/relene-pe-lldpe-hdpe-ldpe/</t>
-  </si>
-  <si>
-    <t>22FA002</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="A2" sqref="A2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,142 +456,70 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>113108</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4">
-        <v>10</v>
-      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>122846</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4">
-        <v>33</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>95988</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4">
-        <v>43</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>114336</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4">
-        <v>55</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>112810</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4">
-        <v>87</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>122550</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4">
-        <v>99</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
